--- a/donnees/baseDeDonnees.xlsx
+++ b/donnees/baseDeDonnees.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ETML\2020-2021\01-Projet\042-GesProj2\phptest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ETML\2020-2021\01-Projet\042-GesProj2\donnees\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70C5894-A60A-4EE2-9A4C-5FF9B97D03C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22110" yWindow="1680" windowWidth="21600" windowHeight="11385" activeTab="1"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="artistes" sheetId="1" r:id="rId1"/>
@@ -20,14 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -203,7 +196,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -427,7 +420,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Feuil1" xfId="1"/>
+    <cellStyle name="Normal_Feuil1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -738,16 +731,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -910,10 +904,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>

--- a/donnees/baseDeDonnees.xlsx
+++ b/donnees/baseDeDonnees.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ETML\2020-2021\01-Projet\042-GesProj2\donnees\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70C5894-A60A-4EE2-9A4C-5FF9B97D03C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA187C0B-9E09-44EB-981C-642E4A25C44C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="artistes" sheetId="1" r:id="rId1"/>
@@ -130,9 +130,6 @@
     <t>J'aime Bien!</t>
   </si>
   <si>
-    <t xml:space="preserve">Au Bout </t>
-  </si>
-  <si>
     <t>XS</t>
   </si>
   <si>
@@ -160,9 +157,6 @@
     <t>Amnésie</t>
   </si>
   <si>
-    <t xml:space="preserve">Ouais Ouais </t>
-  </si>
-  <si>
     <t>Zolabeille</t>
   </si>
   <si>
@@ -190,7 +184,13 @@
     <t>Hip-hop/Rap</t>
   </si>
   <si>
-    <t xml:space="preserve">R&amp;B/Soul </t>
+    <t>Au Bout</t>
+  </si>
+  <si>
+    <t>Ouais Ouais</t>
+  </si>
+  <si>
+    <t>R&amp;B/Soul</t>
   </si>
 </sst>
 </file>
@@ -734,7 +734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -907,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="290" zoomScaleNormal="290" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,7 +943,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" s="3">
         <v>0.16944444444444443</v>
@@ -960,7 +960,7 @@
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3" s="3">
         <v>0.18819444444444444</v>
@@ -977,7 +977,7 @@
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4" s="3">
         <v>0.18263888888888891</v>
@@ -994,7 +994,7 @@
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D5" s="3">
         <v>0.2076388888888889</v>
@@ -1011,7 +1011,7 @@
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D6" s="3">
         <v>0.17013888888888887</v>
@@ -1028,7 +1028,7 @@
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D7" s="3">
         <v>0.1673611111111111</v>
@@ -1045,7 +1045,7 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D8" s="3">
         <v>0.13472222222222222</v>
@@ -1078,7 +1078,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D11" s="3">
         <v>0.10277777777777779</v>
@@ -1095,7 +1095,7 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D12" s="3">
         <v>0.13472222222222222</v>
@@ -1112,7 +1112,7 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D13" s="3">
         <v>0.11458333333333333</v>
@@ -1129,7 +1129,7 @@
         <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D14" s="3">
         <v>0.13333333333333333</v>
@@ -1143,10 +1143,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D15" s="3">
         <v>0.1673611111111111</v>
@@ -1160,10 +1160,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D16" s="3">
         <v>0.14305555555555557</v>
@@ -1177,10 +1177,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D17" s="3">
         <v>0.13194444444444445</v>
@@ -1194,10 +1194,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18" s="3">
         <v>0.13194444444444445</v>
@@ -1211,10 +1211,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D19" s="3">
         <v>8.819444444444445E-2</v>
@@ -1228,10 +1228,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D20" s="3">
         <v>0.13333333333333333</v>
@@ -1245,10 +1245,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D21" s="3">
         <v>0.15069444444444444</v>
@@ -1262,10 +1262,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D22" s="3">
         <v>0.20138888888888887</v>
@@ -1279,10 +1279,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D23" s="3">
         <v>0.14305555555555557</v>
@@ -1299,7 +1299,7 @@
         <v>911</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D24" s="3">
         <v>0.11944444444444445</v>
@@ -1313,10 +1313,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D25" s="3">
         <v>0.14791666666666667</v>
@@ -1330,10 +1330,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D26" s="3">
         <v>0.12083333333333333</v>
@@ -1347,10 +1347,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D27" s="3">
         <v>0.10694444444444444</v>
@@ -1364,10 +1364,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D28" s="3">
         <v>0.12986111111111112</v>
@@ -1381,7 +1381,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
         <v>54</v>
@@ -1398,10 +1398,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D30" s="3">
         <v>0.16527777777777777</v>
@@ -1415,10 +1415,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D31" s="3">
         <v>0.15972222222222224</v>
